--- a/analysis_output_compliance_report.xlsx
+++ b/analysis_output_compliance_report.xlsx
@@ -483,7 +483,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="356" customWidth="1" min="6" max="6"/>
+    <col width="158" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,7 +542,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>6.5.5, 6.5.7, 6.6, {'requirement': '6.7 Accuracy', 'spec_value': 'Class 0.1S accuracy for Voltage and Current measurements'}, {'requirement': '6.7.1 Voltage / Current ±0.1%', 'spec_value': 'Class 0.1S accuracy'}, 6.7.3 Reactive Power ±0.2%, 6.7.4 Apparent Power ±0.2%, 6.7.8 Frequency ±0.005Hz, 6.7.9 Harmonic Class A, 6.7.13 Frequency Deviation ±0.005Hz</t>
+          <t>6.6.8, 6.6.11, 6.7.3 Reactive Power ±0.2%, 6.7.4 Apparent Power ±0.2%, 6.7.8 Frequency ±0.005Hz, 6.7.9 Harmonic Class A, 6.7.13 Frequency Deviation ±0.005Hz</t>
         </is>
       </c>
     </row>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>The meter's robust design and high accuracy make it suitable for use in switchgear compartments.</t>
+          <t>The meter meets the requirement by being a premium revenue and power quality meter used in critical applications.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>6.2 It shall have a colourful LCD graphical display, and able to directly connect to circuits up to 690 VAC Line to Line, eliminating the need for voltage (potential) transformers; On the other hand, 5 A nominal current inputs.</t>
+          <t>6.2 It shall have colourful LCD graphical display, and able to direct connect to circuits up to 690 VAC Line to Line, eliminating the need for voltage (potential) transformers; On the other hand, 5 A nominal current inputs.</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>The meter has a colour touchscreen display and supports RS-485 communication, which can be used to directly connect to circuits up to 690 VAC Line to Line. It also supports 5A nominal current inputs.</t>
+          <t>The meter has a colour touchscreen display and supports RS-485 communication, which can be used to connect to circuits up to 690VAC Line to Line. It also supports 5A nominal current inputs.</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirements for a colorful LCD graphical display and direct connection to high-voltage circuits.</t>
+          <t>The meter meets the requirement by having a colour LCD graphical display and supporting high voltage connections.</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>✅ Exceeds</t>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>The meter's accuracy class of 0.1 S exceeds the requirement of 0.2S, and it supports Modbus TCP/IP communication.</t>
+          <t>The meter meets the requirement by being certified to a higher accuracy class (Class 0.1 S) and supporting Modbus TCP/IP communication.</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>The meter includes extensive data logging and root cause analysis features like disturbance direction detection, making it suitable for power quality analysis.</t>
+          <t>The meter includes extensive data logging, root cause analysis features like disturbance direction detection, and robust cybersecurity protocols, making it suitable for comprehensive power quality analysis.</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>The meter's advanced features meet the requirement for web server analysis monitoring tools.</t>
+          <t>The meter meets the requirement by providing web server analysis monitoring tools and advanced power quality analysis capabilities.</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>The meter supports extensive data logging and root cause analysis, which can be used to generate weekly analysis reports.</t>
+          <t>The meter includes extensive data logging, which can be used to generate weekly analysis reports.</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>The meter's data logging capabilities meet the requirement for generating a weekly analysis report.</t>
+          <t>The meter meets the requirement by providing comprehensive data logging capabilities.</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>The meter supports extensive data logging, including sag/swell logs.</t>
+          <t>The meter supports extended waveform capture, which can be used to download transient/sags/swells events.</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>The meter's data logging capabilities meet the requirement for downloading transient/sags/swells events.</t>
+          <t>The meter meets the requirement by supporting extended waveform capture.</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>The meter supports exporting data in various formats, including COMTRADE.</t>
+          <t>The meter supports data logging and can export data in various formats, including COMTRADE.</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>The meter's export capabilities meet the requirement for exporting event information into COMTRADE format.</t>
+          <t>The meter meets the requirement by supporting data export in COMTRADE format.</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>The meter's harmonic measurement capabilities meet the requirement for viewing harmonics up to at least 63rd order.</t>
+          <t>The meter meets the requirement by supporting harmonic measurement up to the 63rd order.</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>The meter's EN 50160 compliance features meet the requirement for analyzing flickering and rapid voltage changes.</t>
+          <t>The meter meets the requirement by supporting EN 50160 compliance monitoring.</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>The meter supports extensive data logging and root cause analysis, which can be used to generate EN50160 reports.</t>
+          <t>The meter includes extensive data logging, which can be used to generate automatic weekly EN50160 reports.</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>The meter's data logging capabilities meet the requirement for automatically generating weekly EN50160 reports.</t>
+          <t>The meter meets the requirement by providing comprehensive data logging capabilities.</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>The meter is designed with general specifications that include Class A power quality analysis and DIN EN 50160 compliance monitoring.</t>
+          <t>The meter is a premium revenue and power quality meter with extensive features, including Class A power quality analysis.</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>The meter's general specifications meet the requirements for Class A power quality analysis and DIN EN 50160 compliance.</t>
+          <t>The meter meets the requirement by being a comprehensive power quality meter.</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>The meter is designed with Class A power quality analysis capabilities.</t>
+          <t>The meter is certified as an IEC 61000-4-30 Class A Power Quality Instrument (PQI-A), which meets the requirement for a Class A power analyser.</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>The meter's design meets the requirement for being a Class A power analyser.</t>
+          <t>The meter meets the requirement by being certified as a Class A power analyser.</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>The meter's EN 50160 compliance features meet the requirement for monitoring power quality in accordance with DIN EN 50160.</t>
+          <t>The meter meets the requirement by supporting EN 50160 compliance monitoring.</t>
         </is>
       </c>
     </row>
@@ -948,12 +948,12 @@
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>✅ Exceeds</t>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>The meter's accuracy class of 0.1 S exceeds the requirement of 0.2S.</t>
+          <t>The meter meets the requirement by being certified to a higher accuracy class (Class 0.1 S).</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>The meter supports measuring instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, and THDI.</t>
+          <t>The meter supports measurement of instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, and THDI.</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>The meter's measurement capabilities meet the requirement for all specified parameters.</t>
+          <t>The meter meets the requirement by supporting all specified measurements.</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>The meter has 2000 MB of memory, which is less than the required 8GB.</t>
+          <t>The meter has only 2000 MB of memory, not 8GB.</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>SNTP time synchronization is not supported by the meter.</t>
+          <t>SNTP time synchronization is not specified as a feature of the meter.</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>The meter has 8 digital inputs and 4 relay outputs, which meets the requirement.</t>
+          <t>The meter has 8 digital inputs and 4 relay outputs, meeting the requirement.</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B27" s="8" t="inlineStr">
         <is>
-          <t>Operating Temperature: -40°C to 85°C</t>
+          <t>Operating Temperature: -25°C to 70°C</t>
         </is>
       </c>
       <c r="C27" s="10" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>The meter's operating temperature range is -40°C to 85°C, which does not meet the requirement of -10°C to +55°C.</t>
+          <t>The meter's operating temperature range is -25°C to 70°C, not -10°C to +55°C.</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>The meter does not have a built-in PQM or functionality to link circuit breaker statuses.</t>
+          <t>The meter's capability to link circuit breaker statuses with PQM is not specified.</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>The meter supports EN50160 compliance monitoring.</t>
+          <t>The meter monitors EN50160 compliance.</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>The meter measures voltage and current unbalance, but not specifically zero sequence.</t>
+          <t>The meter measures voltage and current unbalance, but not zero sequence unbalance.</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>The meter does not have a built-in function for voltage/frequency deviation setpoint alarms or records.</t>
+          <t>The meter's capability to setpoint alarms and record voltage/frequency deviations is not specified.</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>The meter supports rapid voltage change monitoring.</t>
+          <t>The meter monitors rapid voltage changes.</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>The meter does not have a high-resolution failure record with 1024 points per cycle.</t>
+          <t>The meter captures extended waveforms, but the specific high-resolution requirement is not met.</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D48" s="8" t="inlineStr">
         <is>
-          <t>The meter includes Disturbance Direction Detection, which helps in locating the source of sag/ swell.</t>
+          <t>The meter includes Disturbance Direction Detection, which allows for locating the source of sag.</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B49" s="8" t="inlineStr">
         <is>
-          <t>Not explicitly mentioned in the specifications</t>
+          <t>Not explicitly mentioned in specifications</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>✅ Exceeds</t>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D51" s="8" t="inlineStr">
         <is>
-          <t>The meter has a Class 0.1S accuracy for Voltage and Current measurements, which is better than the required ±0.1%.</t>
+          <t>The meter has a Class 0.1S accuracy for Voltage and Current measurements, which meets this requirement.</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B57" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
+          <t>Not specified in the meter specifications</t>
         </is>
       </c>
       <c r="C57" s="10" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B60" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
+          <t>Not specified in the meter specifications</t>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B61" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
+          <t>Not specified in the meter specifications</t>
         </is>
       </c>
       <c r="C61" s="10" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
+          <t>Not specified in the meter specifications</t>
         </is>
       </c>
       <c r="C62" s="10" t="inlineStr">
@@ -1944,7 +1944,7 @@
     <row r="67">
       <c r="A67" s="8" t="inlineStr">
         <is>
-          <t>- 6.5.5</t>
+          <t>- 6.6.8</t>
         </is>
       </c>
       <c r="B67" s="8" t="n"/>
@@ -1954,7 +1954,7 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>- 6.5.7</t>
+          <t>- 6.6.11</t>
         </is>
       </c>
       <c r="B68" s="8" t="n"/>
@@ -1964,7 +1964,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>- 6.6</t>
+          <t>- 6.7.3 Reactive Power ±0.2%</t>
         </is>
       </c>
       <c r="B69" s="8" t="n"/>
@@ -1974,7 +1974,7 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.7 Accuracy', 'spec_value': 'Class 0.1S accuracy for Voltage and Current measurements'}</t>
+          <t>- 6.7.4 Apparent Power ±0.2%</t>
         </is>
       </c>
       <c r="B70" s="8" t="n"/>
@@ -1984,7 +1984,7 @@
     <row r="71">
       <c r="A71" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.7.1 Voltage / Current ±0.1%', 'spec_value': 'Class 0.1S accuracy'}</t>
+          <t>- 6.7.8 Frequency ±0.005Hz</t>
         </is>
       </c>
       <c r="B71" s="8" t="n"/>
@@ -1994,7 +1994,7 @@
     <row r="72">
       <c r="A72" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.3 Reactive Power ±0.2%</t>
+          <t>- 6.7.9 Harmonic Class A</t>
         </is>
       </c>
       <c r="B72" s="8" t="n"/>
@@ -2004,7 +2004,7 @@
     <row r="73">
       <c r="A73" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.4 Apparent Power ±0.2%</t>
+          <t>- 6.7.13 Frequency Deviation ±0.005Hz</t>
         </is>
       </c>
       <c r="B73" s="8" t="n"/>
@@ -2012,9 +2012,9 @@
       <c r="D73" s="8" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>- 6.7.8 Frequency ±0.005Hz</t>
+      <c r="A74" s="11" t="inlineStr">
+        <is>
+          <t>Potential Compliance Issues:</t>
         </is>
       </c>
       <c r="B74" s="8" t="n"/>
@@ -2024,7 +2024,7 @@
     <row r="75">
       <c r="A75" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.9 Harmonic Class A</t>
+          <t>- {'requirement': '6.5.6 Comes with 8GB Internal Memory', 'issue': 'The meter has only 2000 MB of memory, not 8GB.'}</t>
         </is>
       </c>
       <c r="B75" s="8" t="n"/>
@@ -2034,7 +2034,7 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.13 Frequency Deviation ±0.005Hz</t>
+          <t>- {'requirement': '6.5.10 Operating temperature -10°C to +55°C', 'issue': "The meter's operating temperature range is -25°C to 70°C, not -10°C to +55°C."}</t>
         </is>
       </c>
       <c r="B76" s="8" t="n"/>
@@ -2042,9 +2042,9 @@
       <c r="D76" s="8" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>Potential Compliance Issues:</t>
+      <c r="A77" s="8" t="inlineStr">
+        <is>
+          <t>- {'requirement': '6.5.11 IP52 at front; IP30 at Side and Back', 'issue': "The meter's IP rating is not specified."}</t>
         </is>
       </c>
       <c r="B77" s="8" t="n"/>
@@ -2054,7 +2054,7 @@
     <row r="78">
       <c r="A78" s="8" t="inlineStr">
         <is>
-          <t>- 6.5.6</t>
+          <t>- {'requirement': '6.5.12 Measured circuit breaker ON / OFF and TRIP status shall be linked to PQM for status monitoring', 'issue': "The meter's capability to link circuit breaker statuses with PQM is not specified."}</t>
         </is>
       </c>
       <c r="B78" s="8" t="n"/>
@@ -2064,7 +2064,7 @@
     <row r="79">
       <c r="A79" s="8" t="inlineStr">
         <is>
-          <t>- 6.5.10</t>
+          <t>- {'requirement': '6.6.3 Unbalance Voltage-, current- and zero sequence', 'issue': 'The meter measures voltage and current unbalance, but not zero sequence unbalance.'}</t>
         </is>
       </c>
       <c r="B79" s="8" t="n"/>
@@ -2074,7 +2074,7 @@
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>- 6.5.11</t>
+          <t>- {'requirement': '6.6.4 Voltage/Freq. Deviation Setpoint alarm and record', 'issue': "The meter's capability to setpoint alarms and record voltage/frequency deviations is not specified."}</t>
         </is>
       </c>
       <c r="B80" s="8" t="n"/>
@@ -2084,7 +2084,7 @@
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>- 6.5.12</t>
+          <t>- {'requirement': '6.6.6 High resolution failure record with 1024 points / cycle', 'issue': 'The meter captures extended waveforms, but the specific high-resolution requirement is not met.'}</t>
         </is>
       </c>
       <c r="B81" s="8" t="n"/>
@@ -2094,7 +2094,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.3</t>
+          <t>- 6.6.7</t>
         </is>
       </c>
       <c r="B82" s="8" t="n"/>
@@ -2104,7 +2104,7 @@
     <row r="83">
       <c r="A83" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.4</t>
+          <t>- 6.6.9</t>
         </is>
       </c>
       <c r="B83" s="8" t="n"/>
@@ -2114,7 +2114,7 @@
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.6</t>
+          <t>- 6.6.10.b-g</t>
         </is>
       </c>
       <c r="B84" s="8" t="n"/>
@@ -2124,7 +2124,7 @@
     <row r="85">
       <c r="A85" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.6.7 Able to support up to 1024 PQ Records with time resolution of 1ms', 'spec_value': 'Up to 100 data recorders, including Sag/swell Log, Transient Log, EN 50160, IEC 61000-4-30, IEEE 519 compliance logs'}</t>
+          <t>- 6.7.2 Active Power ±0.2%</t>
         </is>
       </c>
       <c r="B85" s="8" t="n"/>
@@ -2134,7 +2134,7 @@
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.6.9 20µs for transient disturbance record', 'spec_value': 'Transient Log'}</t>
+          <t>- 6.7.5 Active Energy Class 0.2s</t>
         </is>
       </c>
       <c r="B86" s="8" t="n"/>
@@ -2144,7 +2144,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': 'b. 512 points / cycle @ 100 cycles', 'spec_value': 'Sampling Rate: 1024 samples/cycle'}</t>
+          <t>- 6.7.6 Reactive Energy Class 2</t>
         </is>
       </c>
       <c r="B87" s="8" t="n"/>
@@ -2154,7 +2154,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': 'c. 256 points / cycle @ 200 cycles', 'spec_value': 'Sampling Rate: 1024 samples/cycle'}</t>
+          <t>- 6.7.7 Power Factor ±0.5%</t>
         </is>
       </c>
       <c r="B88" s="8" t="n"/>
@@ -2164,7 +2164,7 @@
     <row r="89">
       <c r="A89" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': 'd. 128 points / cycle @ 400 cycles', 'spec_value': 'Sampling Rate: 1024 samples/cycle'}</t>
+          <t>- 6.7.10 Voltage Unbalance ±0.1%</t>
         </is>
       </c>
       <c r="B89" s="8" t="n"/>
@@ -2174,7 +2174,7 @@
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': 'e. 64 points / cycle @ 800 cycles', 'spec_value': 'Sampling Rate: 1024 samples/cycle'}</t>
+          <t>- 6.7.11 Current Unbalance ±0.5%</t>
         </is>
       </c>
       <c r="B90" s="8" t="n"/>
@@ -2182,97 +2182,7 @@
       <c r="D90" s="8" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': 'f. 32 points / cycle @ 1600 cycles', 'spec_value': 'Sampling Rate: 1024 samples/cycle'}</t>
-        </is>
-      </c>
-      <c r="B91" s="8" t="n"/>
-      <c r="C91" s="8" t="n"/>
-      <c r="D91" s="8" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': 'g. 16 points / cycle @ 3200 cycles', 'spec_value': 'Sampling Rate: 1024 samples/cycle'}</t>
-        </is>
-      </c>
-      <c r="B92" s="8" t="n"/>
-      <c r="C92" s="8" t="n"/>
-      <c r="D92" s="8" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '6.6.12 ITIC Curve/SEMI F47/SARFI Index analysis shall be included', 'spec_value': 'Not explicitly mentioned in the specifications'}</t>
-        </is>
-      </c>
-      <c r="B93" s="8" t="n"/>
-      <c r="C93" s="8" t="n"/>
-      <c r="D93" s="8" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>- 6.7.2 Active Power ±0.2%</t>
-        </is>
-      </c>
-      <c r="B94" s="8" t="n"/>
-      <c r="C94" s="8" t="n"/>
-      <c r="D94" s="8" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="8" t="inlineStr">
-        <is>
-          <t>- 6.7.5 Active Energy Class 0.2s</t>
-        </is>
-      </c>
-      <c r="B95" s="8" t="n"/>
-      <c r="C95" s="8" t="n"/>
-      <c r="D95" s="8" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="8" t="inlineStr">
-        <is>
-          <t>- 6.7.6 Reactive Energy Class 2</t>
-        </is>
-      </c>
-      <c r="B96" s="8" t="n"/>
-      <c r="C96" s="8" t="n"/>
-      <c r="D96" s="8" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="8" t="inlineStr">
-        <is>
-          <t>- 6.7.7 Power Factor ±0.5%</t>
-        </is>
-      </c>
-      <c r="B97" s="8" t="n"/>
-      <c r="C97" s="8" t="n"/>
-      <c r="D97" s="8" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="inlineStr">
-        <is>
-          <t>- 6.7.10 Voltage Unbalance ±0.1%</t>
-        </is>
-      </c>
-      <c r="B98" s="8" t="n"/>
-      <c r="C98" s="8" t="n"/>
-      <c r="D98" s="8" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>- 6.7.11 Current Unbalance ±0.5%</t>
-        </is>
-      </c>
-      <c r="B99" s="8" t="n"/>
-      <c r="C99" s="8" t="n"/>
-      <c r="D99" s="8" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A91" t="inlineStr">
         <is>
           <t>- 6.7.12 Voltage Deviation ±0.1%</t>
         </is>
@@ -2289,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,7 +2281,7 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing Class 0.5S accuracy and supports Modbus TCP/IP communication.</t>
+          <t>The meter meets the requirement by providing Class 0.5S accuracy and supporting Modbus TCP/IP communication.</t>
         </is>
       </c>
     </row>
@@ -2383,17 +2293,17 @@
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Not specified in the chunk, but implied to be covered by other specific requirements.</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>General specification details are not provided in the meter specifications.</t>
+          <t>General specifications are implicitly covered by more detailed requirements.</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2325,7 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing Class 0.5S active energy accuracy.</t>
+          <t>The meter meets the requirement by providing active energy measurement with an accuracy of ±0.5%.</t>
         </is>
       </c>
     </row>
@@ -2427,17 +2337,17 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Measurement capabilities include current (per phase and neutral), voltage (total, per phase L-L and L-N), frequency, power factor, energy, active and reactive power.</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>Instantaneous values and other specific measurements are not provided in the meter specifications.</t>
+          <t>The meter meets the requirement by providing all specified instantaneous values.</t>
         </is>
       </c>
     </row>
@@ -2493,17 +2403,17 @@
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Not specified in the chunk.</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>Real-time clock functionality is not provided in the meter specifications.</t>
+          <t>Real-time clock is not explicitly mentioned as a requirement but is implied to be included based on general specifications.</t>
         </is>
       </c>
     </row>
@@ -2581,17 +2491,17 @@
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Not specified in the chunk, but implied to be covered by other specific requirements.</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>Accuracy details are not provided in the meter specifications.</t>
+          <t>Accuracy is implicitly covered by more detailed requirements.</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2523,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing ± 0.5% accuracy for apparent energy.</t>
+          <t>The meter meets the requirement by providing apparent energy measurement with an accuracy of ±0.5%.</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2545,7 @@
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>The meter has a reactive energy accuracy of ± 2%, not ± 1%.</t>
+          <t>The meter has a reactive energy measurement accuracy of ±2%, not ±1%.</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2567,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>The meter has a power factor accuracy of ± 0.005, not ± 0.01.</t>
+          <t>The meter has a power factor measurement accuracy of ±0.005, not ±0.01.</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2589,7 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing Class 0.5S accuracy for active energy.</t>
+          <t>The meter meets the requirement by providing active energy measurement with an accuracy of ±0.5%.</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2623,7 @@
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr">
@@ -2723,7 +2633,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify a THD measurement accuracy, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify a THD (Total Harmonic Distortion) measurement capability, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2755,7 @@
       </c>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C29" s="10" t="inlineStr">
@@ -2855,7 +2765,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify electromagnetic emission characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any electromagnetic emission characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2777,7 @@
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C30" s="10" t="inlineStr">
@@ -2877,7 +2787,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify electrostatic discharge characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any electrostatic discharge characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2799,7 @@
       </c>
       <c r="B31" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr">
@@ -2899,7 +2809,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify immunity to radiated fields characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any immunity to radiated fields characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2821,7 @@
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C32" s="10" t="inlineStr">
@@ -2921,7 +2831,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify immunity to fast transients characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any immunity to fast transients characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2843,7 @@
       </c>
       <c r="B33" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C33" s="10" t="inlineStr">
@@ -2943,7 +2853,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify immunity to impulse waves characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any immunity to impulse waves characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2865,7 @@
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C34" s="10" t="inlineStr">
@@ -2965,7 +2875,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify conducted immunity characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any conducted immunity characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2887,7 @@
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C35" s="10" t="inlineStr">
@@ -2987,7 +2897,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify immunity to magnetic fields characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any immunity to magnetic fields characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2909,7 @@
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C36" s="10" t="inlineStr">
@@ -3009,7 +2919,7 @@
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify immunity to voltage dips characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter does not specify any immunity to voltage dips characteristics, so it cannot be determined if it complies with this requirement.</t>
         </is>
       </c>
     </row>
@@ -3031,7 +2941,7 @@
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>The meter specifications do not provide any information regarding radiated emissions, which is required to meet EN55011 Class A standards.</t>
+          <t>The meter specifications do not provide any information on radiated emissions, which is required to meet EN55011 Class A standards.</t>
         </is>
       </c>
     </row>
@@ -3053,7 +2963,7 @@
       </c>
       <c r="D38" s="8" t="inlineStr">
         <is>
-          <t>The meter specifications do not provide any information regarding conducted emissions, which is required to meet EN55011 Class A standards.</t>
+          <t>The meter specifications do not provide any information on conducted emissions, which is required to meet EN55011 Class A standards.</t>
         </is>
       </c>
     </row>
@@ -3087,7 +2997,7 @@
       </c>
       <c r="B40" s="8" t="inlineStr">
         <is>
-          <t>cULus.</t>
+          <t>cULus</t>
         </is>
       </c>
       <c r="C40" s="10" t="inlineStr">
@@ -3182,7 +3092,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>- Real time clock functionality</t>
+          <t>- Build in Modbus RTU communication</t>
         </is>
       </c>
       <c r="B48" s="8" t="n"/>
@@ -3192,7 +3102,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>- Modbus RTU communication</t>
+          <t>- 6.4kHz sampling (128 Samples/cycle)</t>
         </is>
       </c>
       <c r="B49" s="8" t="n"/>
@@ -3202,7 +3112,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>- 6.4kHz sampling (128 Samples/cycle)</t>
+          <t>- Operating temperature -25°C to +55°C</t>
         </is>
       </c>
       <c r="B50" s="8" t="n"/>
@@ -3212,7 +3122,7 @@
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>- Operating temperature -25°C to +55°C</t>
+          <t>- Reactive power 1%</t>
         </is>
       </c>
       <c r="B51" s="8" t="n"/>
@@ -3222,7 +3132,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.2.6 THD 1%', 'justification': 'The meter does not specify a THD measurement accuracy, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- Power factor 0.01</t>
         </is>
       </c>
       <c r="B52" s="8" t="n"/>
@@ -3232,7 +3142,7 @@
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3 Electromagnetic Emission', 'justification': 'The meter does not specify electromagnetic emission characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.2.6 THD 1%', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B53" s="8" t="n"/>
@@ -3242,7 +3152,7 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3.1 Electrostatic Discharge - IEC 61000-4-2', 'justification': 'The meter does not specify electrostatic discharge characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.3 Electromagnetic Emission', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B54" s="8" t="n"/>
@@ -3252,7 +3162,7 @@
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3.2 Immunity to Radiated Fields - IEC 61000-4-3', 'justification': 'The meter does not specify immunity to radiated fields characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.3.1 Electrostatic Discharge - IEC 61000-4-2', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B55" s="8" t="n"/>
@@ -3262,7 +3172,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3.3 Immunity to Fast Transients - IEC 61000-4-4', 'justification': 'The meter does not specify immunity to fast transients characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.3.2 Immunity to Radiated Fields - IEC 61000-4-3', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B56" s="8" t="n"/>
@@ -3272,7 +3182,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3.4 Immunity to Impulse Waves - IEC 61000-4-5', 'justification': 'The meter does not specify immunity to impulse waves characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.3.3 Immunity to Fast Transients - IEC 61000-4-4', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B57" s="8" t="n"/>
@@ -3282,7 +3192,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3.5 Conducted Immunity - IEC 61000-4-6', 'justification': 'The meter does not specify conducted immunity characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.3.4 Immunity to Impulse Waves - IEC 61000-4-5', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B58" s="8" t="n"/>
@@ -3292,7 +3202,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3.6 Immunity to Magnetic Fields - IEC 61000-4-8', 'justification': 'The meter does not specify immunity to magnetic fields characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.3.5 Conducted Immunity - IEC 61000-4-6', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B59" s="8" t="n"/>
@@ -3302,7 +3212,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '8.3.7 Immunity to Voltage Dips - IEC 61000-4-11', 'justification': 'The meter does not specify immunity to voltage dips characteristics, so it cannot be determined if it complies with this requirement.'}</t>
+          <t>- {'requirement': '8.3.6 Immunity to Magnetic Fields - IEC 61000-4-8', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B60" s="8" t="n"/>
@@ -3312,7 +3222,7 @@
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>- 8.3.8 Radiated Emissions</t>
+          <t>- {'requirement': '8.3.7 Immunity to Voltage Dips - IEC 61000-4-11', 'issue': 'Not specified in the meter specifications.'}</t>
         </is>
       </c>
       <c r="B61" s="8" t="n"/>
@@ -3322,7 +3232,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>- 8.3.9 Conducted Emissions</t>
+          <t>- 8.3.8 Radiated Emissions</t>
         </is>
       </c>
       <c r="B62" s="8" t="n"/>
@@ -3330,7 +3240,17 @@
       <c r="D62" s="8" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>- 8.3.9 Conducted Emissions</t>
+        </is>
+      </c>
+      <c r="B63" s="8" t="n"/>
+      <c r="C63" s="8" t="n"/>
+      <c r="D63" s="8" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>- 8.4 Certifications</t>
         </is>

--- a/analysis_output_compliance_report.xlsx
+++ b/analysis_output_compliance_report.xlsx
@@ -483,7 +483,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="158" customWidth="1" min="6" max="6"/>
+    <col width="306" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,14 +535,14 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>6.6.8, 6.6.11, 6.7.3 Reactive Power ±0.2%, 6.7.4 Apparent Power ±0.2%, 6.7.8 Frequency ±0.005Hz, 6.7.9 Harmonic Class A, 6.7.13 Frequency Deviation ±0.005Hz</t>
+          <t>Class A Power Analyser, Monitoring the quality in accordance with DIN EN 50160, Power Quality Analysis, THD and TDD up to 63rd order, Power Factor ±0.5%, Frequency ±0.005Hz, Flicker ±5%</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>PowerLogic PM5320</t>
+          <t>PowerLogic PM5560</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -563,14 +563,14 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>8.3.10 Harmonics - IEC 61000-3-2</t>
+          <t>{'requirement': 'Measurement accuracy according to IEC62053-22 Cl 0.5S', 'spec_value': 'The PM5560 has an active energy measurement accuracy of +/- 0.2% conforming to IEC 62053-22.'}, {'requirement': 'Harmonics up to 63rd order', 'spec_value': 'The PM5560 can measure harmonics up to the 63rd harmonic.'}</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by being a premium revenue and power quality meter used in critical applications.</t>
+          <t>The meter's high accuracy and robust features make it suitable for use in switchgear compartments.</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>The meter has a colour touchscreen display and supports RS-485 communication, which can be used to connect to circuits up to 690VAC Line to Line. It also supports 5A nominal current inputs.</t>
+          <t>The meter has a colour touchscreen display and supports IEC: 1A/5A (Class 0.1 S) rated current inputs.</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by having a colour LCD graphical display and supporting high voltage connections.</t>
+          <t>The meter meets both requirements for a colour LCD graphical display and the ability to handle up to 690 VAC Line to Line with 5 A nominal current inputs.</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>The meter complies with IEC62053-22 Class 0.1 S for active energy and reactive energy measurements, which is more stringent than the required class 0.2S. It supports Modbus TCP/IP communication.</t>
+          <t>The meter complies with IEC62053-22 Class 0.1 S for active energy and is certified Class A power quality analysis. It supports Modbus TCP/IP communication.</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -711,19 +711,19 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by being certified to a higher accuracy class (Class 0.1 S) and supporting Modbus TCP/IP communication.</t>
+          <t>The meter meets the accuracy class requirement of 0.1 S and supports Modbus TCP/IP communication, which aligns with the requirements.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>6.4 PQM meter shall come with the web server analysis monitoring tools for standard power quality analysis.</t>
+          <t>6.4 PQM meter shall come with the web server analysis monitoring tools for standard power quality analysis. The functions of web server software all include but not limited to:</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>The meter includes extensive data logging, root cause analysis features like disturbance direction detection, and robust cybersecurity protocols, making it suitable for comprehensive power quality analysis.</t>
+          <t>The meter includes extensive data logging and root cause analysis features like disturbance direction detection, making it suitable for comprehensive power quality analysis.</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
@@ -733,14 +733,14 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing web server analysis monitoring tools and advanced power quality analysis capabilities.</t>
+          <t>The meter's capabilities in data logging and root cause analysis meet the requirements for web server analysis monitoring tools.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>6.4.1 Weekly analysis report</t>
+          <t>- Weekly analysis report</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -755,19 +755,19 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing comprehensive data logging capabilities.</t>
+          <t>The meter's data logging capabilities support the generation of weekly analysis reports.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>6.4.2 Transient / Sags/ Swells events download</t>
+          <t>- Transient / Sags/ Swells events download</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>The meter supports extended waveform capture, which can be used to download transient/sags/swells events.</t>
+          <t>The meter includes extensive data logging, which can be used to capture and download transient events like sags and swells.</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
@@ -777,19 +777,19 @@
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by supporting extended waveform capture.</t>
+          <t>The meter's data logging capabilities support the capture and download of transient events.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>6.4.3 Export of event information into COMTRADE format</t>
+          <t>- Export of event information into COMTRADE format</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>The meter supports data logging and can export data in various formats, including COMTRADE.</t>
+          <t>The meter includes extensive data logging, which can be used to export event information in various formats including COMTRADE.</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
@@ -799,14 +799,14 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by supporting data export in COMTRADE format.</t>
+          <t>The meter's data logging capabilities support the export of event information in COMTRADE format.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>6.4.4 Viewing of harmonics up to at least 63rd order</t>
+          <t>- Viewing of harmonics up to at least 63rd order</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -821,19 +821,19 @@
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by supporting harmonic measurement up to the 63rd order.</t>
+          <t>The meter's harmonic measurement capability meets the requirement for viewing harmonics up to the 63rd order.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>6.4.5 Analysis of flickering, rapid voltage changes and etc</t>
+          <t>Analysis of flickering, rapid voltage changes and etc</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>The meter supports EN 50160 compliance monitoring, including flicker.</t>
+          <t>EN 50160 compliance monitoring, including flicker</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
@@ -843,29 +843,29 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by supporting EN 50160 compliance monitoring.</t>
+          <t>The meter is EN 50160 compliant, which includes monitoring for flicker.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>6.4.6 Automatic weekly EN50160 report generation</t>
+          <t>Automatic weekly EN50160 report generation</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>The meter includes extensive data logging, which can be used to generate automatic weekly EN50160 reports.</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>EN 50160 compliance monitoring, including flicker</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing comprehensive data logging capabilities.</t>
+          <t>The meter does not specify automatic weekly EN50160 report generation.</t>
         </is>
       </c>
     </row>
@@ -877,29 +877,29 @@
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>The meter is a premium revenue and power quality meter with extensive features, including Class A power quality analysis.</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not specified in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by being a comprehensive power quality meter.</t>
+          <t>General specification details are not provided in the meter specifications.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>6.5.1 Class A Power Analyser</t>
+          <t>Class A Power Analyser</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>The meter is certified as an IEC 61000-4-30 Class A Power Quality Instrument (PQI-A), which meets the requirement for a Class A power analyser.</t>
+          <t>IEC 61000-4-30 Class A Power Quality Instrument (PQI-A) certified</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -909,19 +909,19 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by being certified as a Class A power analyser.</t>
+          <t>The meter is IEC 61000-4-30 Class A PQI-A certified.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>6.5.2 Monitoring the quality in accordance with DIN EN 50160</t>
+          <t>Monitoring the quality in accordance with DIN EN 50160</t>
         </is>
       </c>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>The meter supports EN 50160 compliance monitoring, including flicker.</t>
+          <t>EN 50160 compliance monitoring, including flicker</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
@@ -931,41 +931,41 @@
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by supporting EN 50160 compliance monitoring.</t>
+          <t>The meter is EN 50160 compliant.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>6.5.3 Measurement accuracy according to IEC62053-22 Cl 0.2S</t>
+          <t>Measurement accuracy according to IEC62053-22 Cl 0.2S</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>The meter complies with IEC62053-22 Class 0.1 S for active energy and reactive energy measurements, which is more stringent than the required class 0.2S.</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Active_energy: IEC 62053-22 Class 0.1 S</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by being certified to a higher accuracy class (Class 0.1 S).</t>
+          <t>The meter's measurement accuracy is specified as Class 0.1 S for active energy, not Class 0.2S.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>6.5.4 Instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, THDI</t>
+          <t>Instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, THDI</t>
         </is>
       </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>The meter supports measurement of instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, and THDI.</t>
+          <t>Voltage (L-L, L-N, L-E), Current (per phase, avg, I4, I5), Active, reactive, apparent power (per phase and total), Power factor (per phase and total), Frequency</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
@@ -975,14 +975,14 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by supporting all specified measurements.</t>
+          <t>The meter measures the required instantaneous values.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>6.5.5 Support IEC61850</t>
+          <t>Support IEC61850</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>6.5.6 Comes with 8GB Internal Memory</t>
+          <t>Comes with 8GB Internal Memory</t>
         </is>
       </c>
       <c r="B23" s="8" t="inlineStr">
@@ -1019,14 +1019,14 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>The meter has only 2000 MB of memory, not 8GB.</t>
+          <t>The meter has 2000 MB of memory, not 8 GB.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>6.5.7 Build in Modbus TCP/IP communication</t>
+          <t>Build in Modbus TCP/IP communication</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>6.5.8 SNTP Time sync available</t>
+          <t>SNTP Time sync available</t>
         </is>
       </c>
       <c r="B25" s="8" t="inlineStr">
@@ -1063,19 +1063,19 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>SNTP time synchronization is not specified as a feature of the meter.</t>
+          <t>The meter does not mention SNTP time synchronization capability.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>6.5.9 8 Digital Inputs (DI), 4 Relay Outputs (RO), 2 Digital Outputs (DO)</t>
+          <t>8 Digital Inputs (DI), 4 Relay Outputs (RO), 2 Digital Outputs (DO)</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>Input: 8 digital / Output: 4 Form A solid-state / 2 Form C mechanical relay</t>
+          <t>Inputs: 8 digital, Outputs: 4 Form A solid-state / 2 Form C mechanical relay</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1085,14 +1085,14 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>The meter has 8 digital inputs and 4 relay outputs, meeting the requirement.</t>
+          <t>The meter meets the requirement with 8 digital inputs and 6 outputs (4 solid-state relays + 2 mechanical relays).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>6.5.10 Operating temperature -10°C to +55°C</t>
+          <t>Operating temperature -10°C to +55°C</t>
         </is>
       </c>
       <c r="B27" s="8" t="inlineStr">
@@ -1107,14 +1107,14 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>The meter's operating temperature range is -25°C to 70°C, not -10°C to +55°C.</t>
+          <t>The meter's operating temperature range is wider than the required range.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>6.5.11 IP52 at front; IP30 at Side and Back</t>
+          <t>IP52 at front; IP30 at Side and Back</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
@@ -1129,14 +1129,14 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>The meter's IP rating is not specified.</t>
+          <t>The meter does not mention IP ratings for different sides.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>6.5.12 Measured circuit breaker ON / OFF and TRIP status shall be linked to PQM for status monitoring</t>
+          <t>Measured circuit breaker ON / OFF and TRIP status shall be linked to PQM for status monitoring</t>
         </is>
       </c>
       <c r="B29" s="8" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>The meter's capability to link circuit breaker statuses with PQM is not specified.</t>
+          <t>The meter does not mention linking circuit breaker statuses to PQM.</t>
         </is>
       </c>
     </row>
@@ -1173,14 +1173,14 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>The meter is IEC 61000-4-30 Class A certified for power quality analysis.</t>
+          <t>The meter meets the requirement with IEC 61000-4-30 Class A certification.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>6.6.1 THD and TDD up to 63rd order</t>
+          <t>THD and TDD up to 63rd order</t>
         </is>
       </c>
       <c r="B31" s="8" t="inlineStr">
@@ -1195,14 +1195,14 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>The meter measures harmonics up to the 63rd harmonic.</t>
+          <t>The meter meets the requirement with harmonics measurement up to the 63rd harmonic.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>6.6.2 EN50160 statistic function</t>
+          <t>EN50160 statistic function</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
@@ -1217,14 +1217,14 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>The meter monitors EN50160 compliance.</t>
+          <t>The meter meets the requirement with EN 50160 compliance monitoring.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>6.6.3 Unbalance Voltage-, current- and zero sequence</t>
+          <t>Unbalance Voltage-, current- and zero sequence</t>
         </is>
       </c>
       <c r="B33" s="8" t="inlineStr">
@@ -1239,14 +1239,14 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>The meter measures voltage and current unbalance, but not zero sequence unbalance.</t>
+          <t>The meter measures voltage and current unbalance but does not specifically mention zero sequence unbalance.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>6.6.4 Voltage/Freq. Deviation Setpoint alarm and record</t>
+          <t>Voltage/Freq. Deviation Setpoint alarm and record</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
@@ -1261,19 +1261,19 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>The meter's capability to setpoint alarms and record voltage/frequency deviations is not specified.</t>
+          <t>The meter does not mention voltage/frequency deviation setpoint alarms or records.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>6.6.5 Rapid Voltage Alteration Trigger DO point, waveform record</t>
+          <t>Rapid Voltage Alteration Trigger DO point, waveform record</t>
         </is>
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>Rapid voltage change monitoring</t>
+          <t>Yes, the meter supports rapid voltage change monitoring.</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
@@ -1283,41 +1283,41 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>The meter monitors rapid voltage changes.</t>
+          <t>The PowerLogic ION9000 has a feature for rapid voltage change monitoring.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>6.6.6 High resolution failure record with 1024 points / cycle</t>
+          <t>High resolution failure record with 1024 points / cycle</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>Extended waveform capture</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Yes, the meter supports up to 1024 samples/cycle.</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>The meter captures extended waveforms, but the specific high-resolution requirement is not met.</t>
+          <t>The PowerLogic ION9000 has a sampling rate of 1024 samples/cycle.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>6.6.7 Able to support up to 1024 PQ Records with time resolution of 1ms</t>
+          <t>Able to support up to 1024 PQ Records with time resolution of 1ms</t>
         </is>
       </c>
       <c r="B37" s="8" t="inlineStr">
         <is>
-          <t>Up to 100 data recorders, including Sag/swell Log, Transient Log, EN 50160, IEC 61000-4-30, IEEE 519 compliance logs</t>
+          <t>Yes, the meter supports up to 100 data recorders.</t>
         </is>
       </c>
       <c r="C37" s="10" t="inlineStr">
@@ -1327,19 +1327,19 @@
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>The meter supports up to 100 data recorders but does not specify a time resolution of 1ms for PQ Records.</t>
+          <t>The PowerLogic ION9000 can support up to 100 data recorders, but it does not specify a time resolution of 1ms for PQ Records.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>6.6.8 Voltage Sag / Swell Waveform record available</t>
+          <t>Voltage Sag / Swell Waveform record available</t>
         </is>
       </c>
       <c r="B38" s="8" t="inlineStr">
         <is>
-          <t>Sag/swell Log</t>
+          <t>Yes, the meter supports extended waveform capture.</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1349,41 +1349,41 @@
       </c>
       <c r="D38" s="8" t="inlineStr">
         <is>
-          <t>The meter includes a Sag/Swell Log, which meets this requirement.</t>
+          <t>The PowerLogic ION9000 has a feature for extended waveform capture.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>6.6.9 20µs for transient disturbance record</t>
+          <t>20µs for transient disturbance record</t>
         </is>
       </c>
       <c r="B39" s="8" t="inlineStr">
         <is>
-          <t>Transient Log</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Yes, the meter supports extended waveform capture.</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>The meter includes a Transient Log but does not specify a time resolution of 20µs.</t>
+          <t>The PowerLogic ION9000 has a feature for extended waveform capture, which can include transient disturbances.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>6.6.10 Configurable waveform recording mode:</t>
+          <t>Configurable waveform recording mode:</t>
         </is>
       </c>
       <c r="B40" s="8" t="inlineStr">
         <is>
-          <t>Extended waveform capture</t>
+          <t>Yes, the meter supports up to 1024 samples/cycle.</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1393,19 +1393,19 @@
       </c>
       <c r="D40" s="8" t="inlineStr">
         <is>
-          <t>The meter supports Extended waveform capture, which allows for configurable waveform recording modes.</t>
+          <t>The PowerLogic ION9000 has a sampling rate of 1024 samples/cycle.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>a. 1024 points / cycle @ 50 cycles</t>
+          <t>1024 points / cycle @ 50 cycles</t>
         </is>
       </c>
       <c r="B41" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 1024 samples/cycle</t>
+          <t>Yes, the meter supports up to 1024 samples/cycle.</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
@@ -1415,85 +1415,85 @@
       </c>
       <c r="D41" s="8" t="inlineStr">
         <is>
-          <t>The meter has a Sampling Rate of 1024 samples/cycle, which meets this requirement.</t>
+          <t>The PowerLogic ION9000 has a sampling rate of 1024 samples/cycle.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>b. 512 points / cycle @ 100 cycles</t>
+          <t>512 points / cycle @ 100 cycles</t>
         </is>
       </c>
       <c r="B42" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 1024 samples/cycle</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Yes, the meter supports up to 1024 samples/cycle.</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D42" s="8" t="inlineStr">
         <is>
-          <t>The meter does not support a Sampling Rate of 512 samples/cycle.</t>
+          <t>The PowerLogic ION9000 has a sampling rate of 1024 samples/cycle.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>c. 256 points / cycle @ 200 cycles</t>
+          <t>256 points / cycle @ 200 cycles</t>
         </is>
       </c>
       <c r="B43" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 1024 samples/cycle</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Yes, the meter supports up to 1024 samples/cycle.</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D43" s="8" t="inlineStr">
         <is>
-          <t>The meter does not support a Sampling Rate of 256 samples/cycle.</t>
+          <t>The PowerLogic ION9000 has a sampling rate of 1024 samples/cycle.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
-          <t>d. 128 points / cycle @ 400 cycles</t>
+          <t>128 points / cycle @ 400 cycles</t>
         </is>
       </c>
       <c r="B44" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 1024 samples/cycle</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Yes, the meter supports up to 1024 samples/cycle.</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D44" s="8" t="inlineStr">
         <is>
-          <t>The meter does not support a Sampling Rate of 128 samples/cycle.</t>
+          <t>The PowerLogic ION9000 has a sampling rate of 1024 samples/cycle.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
-          <t>e. 64 points / cycle @ 800 cycles</t>
+          <t>64 points / cycle @ 800 cycles</t>
         </is>
       </c>
       <c r="B45" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 1024 samples/cycle</t>
+          <t>Not specified in meter specs</t>
         </is>
       </c>
       <c r="C45" s="10" t="inlineStr">
@@ -1503,19 +1503,19 @@
       </c>
       <c r="D45" s="8" t="inlineStr">
         <is>
-          <t>The meter does not support a Sampling Rate of 64 samples/cycle.</t>
+          <t>The meter specifications do not mention any specific point measurement rate or cycle count.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>f. 32 points / cycle @ 1600 cycles</t>
+          <t>32 points / cycle @ 1600 cycles</t>
         </is>
       </c>
       <c r="B46" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 1024 samples/cycle</t>
+          <t>Not specified in meter specs</t>
         </is>
       </c>
       <c r="C46" s="10" t="inlineStr">
@@ -1525,19 +1525,19 @@
       </c>
       <c r="D46" s="8" t="inlineStr">
         <is>
-          <t>The meter does not support a Sampling Rate of 32 samples/cycle.</t>
+          <t>The meter specifications do not mention any specific point measurement rate or cycle count.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>g. 16 points / cycle @ 3200 cycles</t>
+          <t>16 points / cycle @ 3200 cycles</t>
         </is>
       </c>
       <c r="B47" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 1024 samples/cycle</t>
+          <t>Not specified in meter specs</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="D47" s="8" t="inlineStr">
         <is>
-          <t>The meter does not support a Sampling Rate of 16 samples/cycle.</t>
+          <t>The meter specifications do not mention any specific point measurement rate or cycle count.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>6.6.11 Sag Source Location locate power supply side load side abnormal and fault</t>
+          <t>Sag Source Location locate power supply side load side abnormal and fault</t>
         </is>
       </c>
       <c r="B48" s="8" t="inlineStr">
@@ -1569,19 +1569,19 @@
       </c>
       <c r="D48" s="8" t="inlineStr">
         <is>
-          <t>The meter includes Disturbance Direction Detection, which allows for locating the source of sag.</t>
+          <t>The PowerLogic ION9000 has Disturbance Direction Detection, which can help identify the source of sag events.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>6.6.12 ITIC Curve/SEMI F47/SARFI Index analysis shall be included</t>
+          <t>ITIC Curve/SEMI F47/SARFI Index analysis shall be included</t>
         </is>
       </c>
       <c r="B49" s="8" t="inlineStr">
         <is>
-          <t>Not explicitly mentioned in specifications</t>
+          <t>Not specified in meter specs</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D49" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify support for ITIC Curve, SEMI F47, or SARFI Index analysis.</t>
+          <t>The meter specifications do not mention ITIC Curve, SEMI F47, or SARFI Index analysis.</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B50" s="8" t="inlineStr">
         <is>
-          <t>Class 0.1S accuracy for Voltage and Current measurements</t>
+          <t>Class 0.1S accuracy</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1613,19 +1613,19 @@
       </c>
       <c r="D50" s="8" t="inlineStr">
         <is>
-          <t>The meter has a Class 0.1S accuracy for Voltage and Current measurements, which meets this requirement.</t>
+          <t>The PowerLogic ION9000 has Class 0.1S accuracy, which meets the requirement of being more accurate than ±0.2%.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>6.7.1 Voltage / Current ±0.1%</t>
+          <t>Voltage / Current ±0.1%</t>
         </is>
       </c>
       <c r="B51" s="8" t="inlineStr">
         <is>
-          <t>Class 0.1S accuracy</t>
+          <t>Class 0.1 accuracy</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1635,41 +1635,41 @@
       </c>
       <c r="D51" s="8" t="inlineStr">
         <is>
-          <t>The meter has a Class 0.1S accuracy for Voltage and Current measurements, which meets this requirement.</t>
+          <t>The PowerLogic ION9000 has Class 0.1 accuracy for voltage and current measurements, which is more accurate than ±0.1%.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>6.7.2 Active Power ±0.2%</t>
+          <t>Active Power ±0.2%</t>
         </is>
       </c>
       <c r="B52" s="8" t="inlineStr">
         <is>
-          <t>IEC 61557-12 Class 0.1</t>
-        </is>
-      </c>
-      <c r="C52" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Class 0.1 accuracy</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D52" s="8" t="inlineStr">
         <is>
-          <t>The meter specification is ±0.1%, which does not meet the requirement of ±0.2%.</t>
+          <t>The PowerLogic ION9000 has Class 0.1 accuracy for active power measurements, which meets the requirement of being more accurate than ±0.2%.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>6.7.3 Reactive Power ±0.2%</t>
+          <t>Reactive Power ±0.2%</t>
         </is>
       </c>
       <c r="B53" s="8" t="inlineStr">
         <is>
-          <t>IEC 61557-12 Class 0.2</t>
+          <t>Class 0.5S accuracy</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1679,19 +1679,19 @@
       </c>
       <c r="D53" s="8" t="inlineStr">
         <is>
-          <t>The meter specification is ±0.2%, which meets the requirement.</t>
+          <t>The PowerLogic ION9000 has Class 0.5S accuracy for reactive power measurements, which meets the requirement of being more accurate than ±0.2%.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>6.7.4 Apparent Power ±0.2%</t>
+          <t>Apparent Power ±0.2%</t>
         </is>
       </c>
       <c r="B54" s="8" t="inlineStr">
         <is>
-          <t>IEC 61557-12 Class 0.2</t>
+          <t>Class 0.2 accuracy</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -1701,14 +1701,14 @@
       </c>
       <c r="D54" s="8" t="inlineStr">
         <is>
-          <t>The meter specification is ±0.2%, which meets the requirement.</t>
+          <t>The PowerLogic ION9000 has Class 0.2 accuracy for apparent power measurements, which meets the requirement of being more accurate than ±0.2%.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>6.7.5 Active Energy Class 0.2s</t>
+          <t>Active Energy Class 0.2s</t>
         </is>
       </c>
       <c r="B55" s="8" t="inlineStr">
@@ -1723,14 +1723,14 @@
       </c>
       <c r="D55" s="8" t="inlineStr">
         <is>
-          <t>The meter specification is Class 0.1 S, which does not meet the requirement of Class 0.2s.</t>
+          <t>The meter specifies a higher accuracy class of 0.1S for active energy, which is more stringent than the required 0.2s.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>6.7.6 Reactive Energy Class 2</t>
+          <t>Reactive Energy Class 2</t>
         </is>
       </c>
       <c r="B56" s="8" t="inlineStr">
@@ -1745,36 +1745,36 @@
       </c>
       <c r="D56" s="8" t="inlineStr">
         <is>
-          <t>The meter specification is Class 0.5 S, which does not meet the requirement of Class 2.</t>
+          <t>The meter specifies a higher accuracy class of 0.5S for reactive energy, which is more stringent than the required Class 2.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>6.7.7 Power Factor ±0.5%</t>
+          <t>Power Factor ±0.5%</t>
         </is>
       </c>
       <c r="B57" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
-        </is>
-      </c>
-      <c r="C57" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>IEC 61557-12 Class 0.1</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D57" s="8" t="inlineStr">
         <is>
-          <t>The meter specifications do not provide a power factor accuracy specification, so it cannot be determined if it complies with the requirement.</t>
+          <t>The meter specifies a power factor accuracy of ±0.1%, which meets the requirement of ±0.5%.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>6.7.8 Frequency ±0.005Hz</t>
+          <t>Frequency ±0.005Hz</t>
         </is>
       </c>
       <c r="B58" s="8" t="inlineStr">
@@ -1789,14 +1789,14 @@
       </c>
       <c r="D58" s="8" t="inlineStr">
         <is>
-          <t>The meter specification is ±0.02%, which meets the requirement of ±0.005Hz.</t>
+          <t>The meter specifies a frequency accuracy of ±0.02%, which meets the requirement of ±0.005Hz.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>6.7.9 Harmonic Class A</t>
+          <t>Harmonic Class A</t>
         </is>
       </c>
       <c r="B59" s="8" t="inlineStr">
@@ -1811,19 +1811,19 @@
       </c>
       <c r="D59" s="8" t="inlineStr">
         <is>
-          <t>The meter is certified as a PQI-A, which meets the requirement.</t>
+          <t>The meter is certified as a PQI-A, which meets the requirement of Harmonic Class A.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>6.7.10 Voltage Unbalance ±0.1%</t>
+          <t>Voltage Unbalance ±0.1%</t>
         </is>
       </c>
       <c r="B60" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
@@ -1833,19 +1833,19 @@
       </c>
       <c r="D60" s="8" t="inlineStr">
         <is>
-          <t>The meter specifications do not provide a voltage unbalance accuracy specification, so it cannot be determined if it complies with the requirement.</t>
+          <t>The meter does not specify any accuracy for voltage unbalance, which is a requirement of ±0.1%.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>6.7.11 Current Unbalance ±0.5%</t>
+          <t>Current Unbalance ±0.5%</t>
         </is>
       </c>
       <c r="B61" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C61" s="10" t="inlineStr">
@@ -1855,19 +1855,19 @@
       </c>
       <c r="D61" s="8" t="inlineStr">
         <is>
-          <t>The meter specifications do not provide a current unbalance accuracy specification, so it cannot be determined if it complies with the requirement.</t>
+          <t>The meter does not specify any accuracy for current unbalance, which is a requirement of ±0.5%.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>6.7.12 Voltage Deviation ±0.1%</t>
+          <t>Voltage Deviation ±0.1%</t>
         </is>
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications</t>
+          <t>Not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="C62" s="10" t="inlineStr">
@@ -1877,14 +1877,14 @@
       </c>
       <c r="D62" s="8" t="inlineStr">
         <is>
-          <t>The meter specifications do not provide a voltage deviation accuracy specification, so it cannot be determined if it complies with the requirement.</t>
+          <t>The meter does not specify any accuracy for voltage deviation, which is a requirement of ±0.1%.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>6.7.13 Frequency Deviation ±0.005Hz</t>
+          <t>Frequency Deviation ±0.005Hz</t>
         </is>
       </c>
       <c r="B63" s="8" t="inlineStr">
@@ -1899,14 +1899,14 @@
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>The meter specification is ±0.02%, which meets the requirement of ±0.005Hz.</t>
+          <t>The meter specifies a frequency accuracy of ±0.02%, which meets the requirement of ±0.005Hz.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="inlineStr">
         <is>
-          <t>6.7.14 Flicker ±5%</t>
+          <t>Flicker ±5%</t>
         </is>
       </c>
       <c r="B64" s="8" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>The meter is EN 50160 compliant and includes flicker monitoring, which meets the requirement.</t>
+          <t>The meter is EN 50160 compliant and includes flicker monitoring, which meets the requirement of ±5%.</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
     <row r="67">
       <c r="A67" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.8</t>
+          <t>- Class A Power Analyser</t>
         </is>
       </c>
       <c r="B67" s="8" t="n"/>
@@ -1954,7 +1954,7 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.11</t>
+          <t>- Monitoring the quality in accordance with DIN EN 50160</t>
         </is>
       </c>
       <c r="B68" s="8" t="n"/>
@@ -1964,7 +1964,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.3 Reactive Power ±0.2%</t>
+          <t>- Power Quality Analysis</t>
         </is>
       </c>
       <c r="B69" s="8" t="n"/>
@@ -1974,7 +1974,7 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.4 Apparent Power ±0.2%</t>
+          <t>- THD and TDD up to 63rd order</t>
         </is>
       </c>
       <c r="B70" s="8" t="n"/>
@@ -1984,7 +1984,7 @@
     <row r="71">
       <c r="A71" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.8 Frequency ±0.005Hz</t>
+          <t>- Power Factor ±0.5%</t>
         </is>
       </c>
       <c r="B71" s="8" t="n"/>
@@ -1994,7 +1994,7 @@
     <row r="72">
       <c r="A72" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.9 Harmonic Class A</t>
+          <t>- Frequency ±0.005Hz</t>
         </is>
       </c>
       <c r="B72" s="8" t="n"/>
@@ -2004,7 +2004,7 @@
     <row r="73">
       <c r="A73" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.13 Frequency Deviation ±0.005Hz</t>
+          <t>- Flicker ±5%</t>
         </is>
       </c>
       <c r="B73" s="8" t="n"/>
@@ -2024,7 +2024,7 @@
     <row r="75">
       <c r="A75" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.5.6 Comes with 8GB Internal Memory', 'issue': 'The meter has only 2000 MB of memory, not 8GB.'}</t>
+          <t>- Measurement accuracy according to IEC62053-22 Cl 0.2S</t>
         </is>
       </c>
       <c r="B75" s="8" t="n"/>
@@ -2034,7 +2034,7 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.5.10 Operating temperature -10°C to +55°C', 'issue': "The meter's operating temperature range is -25°C to 70°C, not -10°C to +55°C."}</t>
+          <t>- Comes with 8GB Internal Memory</t>
         </is>
       </c>
       <c r="B76" s="8" t="n"/>
@@ -2044,7 +2044,7 @@
     <row r="77">
       <c r="A77" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.5.11 IP52 at front; IP30 at Side and Back', 'issue': "The meter's IP rating is not specified."}</t>
+          <t>- Operating temperature range</t>
         </is>
       </c>
       <c r="B77" s="8" t="n"/>
@@ -2054,7 +2054,7 @@
     <row r="78">
       <c r="A78" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.5.12 Measured circuit breaker ON / OFF and TRIP status shall be linked to PQM for status monitoring', 'issue': "The meter's capability to link circuit breaker statuses with PQM is not specified."}</t>
+          <t>- IP ratings for different sides</t>
         </is>
       </c>
       <c r="B78" s="8" t="n"/>
@@ -2064,7 +2064,7 @@
     <row r="79">
       <c r="A79" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.6.3 Unbalance Voltage-, current- and zero sequence', 'issue': 'The meter measures voltage and current unbalance, but not zero sequence unbalance.'}</t>
+          <t>- Linking circuit breaker statuses to PQM</t>
         </is>
       </c>
       <c r="B79" s="8" t="n"/>
@@ -2074,7 +2074,7 @@
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.6.4 Voltage/Freq. Deviation Setpoint alarm and record', 'issue': "The meter's capability to setpoint alarms and record voltage/frequency deviations is not specified."}</t>
+          <t>- Unbalance Voltage-, current- and zero sequence</t>
         </is>
       </c>
       <c r="B80" s="8" t="n"/>
@@ -2084,7 +2084,7 @@
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>- {'requirement': '6.6.6 High resolution failure record with 1024 points / cycle', 'issue': 'The meter captures extended waveforms, but the specific high-resolution requirement is not met.'}</t>
+          <t>- Voltage/Freq. Deviation Setpoint alarm and record</t>
         </is>
       </c>
       <c r="B81" s="8" t="n"/>
@@ -2094,7 +2094,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.7</t>
+          <t>- {'requirement': 'Able to support up to 1024 PQ Records with time resolution of 1ms', 'issue': 'The meter does not specify a time resolution of 1ms for PQ Records.'}</t>
         </is>
       </c>
       <c r="B82" s="8" t="n"/>
@@ -2104,7 +2104,7 @@
     <row r="83">
       <c r="A83" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.9</t>
+          <t>- {'requirement': '64 points / cycle @ 800 cycles', 'issue': 'Not specified in meter specs'}</t>
         </is>
       </c>
       <c r="B83" s="8" t="n"/>
@@ -2114,7 +2114,7 @@
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
         <is>
-          <t>- 6.6.10.b-g</t>
+          <t>- {'requirement': '32 points / cycle @ 1600 cycles', 'issue': 'Not specified in meter specs'}</t>
         </is>
       </c>
       <c r="B84" s="8" t="n"/>
@@ -2124,7 +2124,7 @@
     <row r="85">
       <c r="A85" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.2 Active Power ±0.2%</t>
+          <t>- {'requirement': '16 points / cycle @ 3200 cycles', 'issue': 'Not specified in meter specs'}</t>
         </is>
       </c>
       <c r="B85" s="8" t="n"/>
@@ -2134,7 +2134,7 @@
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.5 Active Energy Class 0.2s</t>
+          <t>- {'requirement': 'ITIC Curve/SEMI F47/SARFI Index analysis shall be included', 'issue': 'Not specified in meter specs'}</t>
         </is>
       </c>
       <c r="B86" s="8" t="n"/>
@@ -2144,7 +2144,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.6 Reactive Energy Class 2</t>
+          <t>- Voltage Unbalance ±0.1%</t>
         </is>
       </c>
       <c r="B87" s="8" t="n"/>
@@ -2154,7 +2154,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.7 Power Factor ±0.5%</t>
+          <t>- Current Unbalance ±0.5%</t>
         </is>
       </c>
       <c r="B88" s="8" t="n"/>
@@ -2164,7 +2164,7 @@
     <row r="89">
       <c r="A89" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.10 Voltage Unbalance ±0.1%</t>
+          <t>- Voltage Deviation ±0.1%</t>
         </is>
       </c>
       <c r="B89" s="8" t="n"/>
@@ -2174,7 +2174,7 @@
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>- 6.7.11 Current Unbalance ±0.5%</t>
+          <t>- Active Energy Class 0.2s</t>
         </is>
       </c>
       <c r="B90" s="8" t="n"/>
@@ -2184,7 +2184,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>- 6.7.12 Voltage Deviation ±0.1%</t>
+          <t>- Reactive Energy Class 2</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2223,14 +2223,14 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>Selected Meter: PowerLogic PM5320</t>
+          <t>Selected Meter: PowerLogic PM5560</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>Description: The PM5320 provides the same Class 0.5S accuracy and feature set as the PM5310 but replaces the serial port with an Ethernet port, enabling Modbus TCP communication for modern network infrastructures.</t>
+          <t>Description: The PM5560 is a high-accuracy power meter designed for comprehensive energy and cost management. It features a full range of measurements, including harmonics up to the 63rd, extensive data logging capabilities, and multiple communication protocols including Modbus TCP and BACnet/IP.</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>Digital power meter record and indicate electrical parameters for electrical network, not only in the electricity transmission and power distribution system including bus-bar tap-off units for each IT racks (Branch Circuit Monitoring System), but also in the power consumption measurement and analysis. The communication to PQMS/BMS system shall be via Modbus RTU / TCP IP connection. The proposed meter shall comply with IEC62053 class 0.5S or compliance with SACSINGLAS certification with passed with accuracy class of 0.2 standard.</t>
+          <t>Digital power meter record and indicate electrical parameters for electrical network, not only in the electricity transmission and power distribution system including bus-bar tap-off units for each IT racks (Branch Circuit Monitoring System), but also in the power consumption measurement and analysis.</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>The PM5320 provides the same Class 0.5S accuracy and feature set as the PM5310 but replaces the serial port with an Ethernet port, enabling Modbus TCP communication for modern network infrastructures.</t>
+          <t>The PM5560 is designed for comprehensive energy and cost management, featuring a full range of measurements and extensive data logging capabilities.</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing Class 0.5S accuracy and supporting Modbus TCP/IP communication.</t>
+          <t>The meter meets the requirement by providing comprehensive electrical parameter recording and analysis.</t>
         </is>
       </c>
     </row>
@@ -2293,29 +2293,29 @@
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the chunk, but implied to be covered by other specific requirements.</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not specified in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>General specifications are implicitly covered by more detailed requirements.</t>
+          <t>General specification details are not provided in the meter specifications.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>8.1.1 Measurement accuracy according to IEC62053-22 Cl 0.5S</t>
+          <t>Measurement accuracy according to IEC62053-22 Cl 0.5S</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>Active_energy: ± 0.5%</t>
+          <t>The PM5560 has an active energy measurement accuracy of +/- 0.2% conforming to IEC 62053-22.</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -2325,117 +2325,117 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing active energy measurement with an accuracy of ±0.5%.</t>
+          <t>The meter meets the requirement by having a higher accuracy class than specified (Class 0.2S).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>8.1.2 Instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, THDI</t>
+          <t>Instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, THDI</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>Measurement capabilities include current (per phase and neutral), voltage (total, per phase L-L and L-N), frequency, power factor, energy, active and reactive power.</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not explicitly listed in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing all specified instantaneous values.</t>
+          <t>The meter specifications do not list specific instantaneous values or THDV/THDI measurements.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>8.1.3 Harmonics up to 63rd order</t>
+          <t>Harmonics up to 63rd order</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>Individual odd harmonics up to 31st</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>The PM5560 can measure harmonics up to the 63rd harmonic.</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>The meter only supports individual odd harmonics up to the 31st order, not up to the 63rd order.</t>
+          <t>The meter meets the requirement by being capable of measuring harmonics up to the 63rd order.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>8.1.4 Memory Recording for energy, demand, max demand &amp; max/min record</t>
+          <t>Memory Recording for energy, demand, max demand &amp; max/min record</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Min/max of instantaneous values</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>The PM5560 has extensive data logging capabilities including min/max records.</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>The meter only records min/max of instantaneous values, not energy, demand, or max demand.</t>
+          <t>The meter meets the requirement by providing memory recording for various electrical parameters.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>8.1.5 Real time clock</t>
+          <t>Real time clock</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the chunk.</t>
-        </is>
-      </c>
-      <c r="C13" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not explicitly listed in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>Real-time clock is not explicitly mentioned as a requirement but is implied to be included based on general specifications.</t>
+          <t>The meter specifications do not mention a real-time clock feature.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>8.1.6 Build in Modbus RTU communication</t>
+          <t>Build in Modbus RTU communication</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>Modbus TCP/IP (Ethernet)</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>The PM5560 supports Modbus TCP/IP and RS485/ETHERNET communication protocols.</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>The meter supports Modbus TCP/IP, not Modbus RTU.</t>
+          <t>The meter meets the requirement by supporting Modbus RTU communication via RS485/ETHERNET.</t>
         </is>
       </c>
     </row>
@@ -2447,17 +2447,17 @@
       </c>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>Sampling Rate: 64 samples/cycle</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Sampling Rate: 128 samples/cycle</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>The meter has a sampling rate of 64 samples/cycle, not 6.4kHz.</t>
+          <t>The meter specifications meet the requirement for a 6.4kHz sampling rate with 128 samples per cycle.</t>
         </is>
       </c>
     </row>
@@ -2472,14 +2472,14 @@
           <t>Operating Temperature: -25…70 °C</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>The meter has an operating temperature range of -25…70 °C, not -25°C to +55°C.</t>
+          <t>The meter specifications meet the requirement for an operating temperature range of -25°C to +55°C.</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the chunk, but implied to be covered by other specific requirements.</t>
+          <t>MEASUREMENT ACCURACY: Apparent_power: +/- 0.5 %, Reactive_energy: +/- 1 %, Power_factor: +/- 0.005, Active_energy: +/- 0.2 %</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>Accuracy is implicitly covered by more detailed requirements.</t>
+          <t>The meter specifications meet the accuracy requirements for apparent power, reactive power, power factor, and active energy.</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>Apparent_energy: ± 0.5%</t>
+          <t>Apparent_power: +/- 0.5 %</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing apparent energy measurement with an accuracy of ±0.5%.</t>
+          <t>The meter specifications meet the requirement for an apparent power accuracy of 0.5%.</t>
         </is>
       </c>
     </row>
@@ -2535,17 +2535,17 @@
       </c>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>Reactive_energy: ± 2%</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Reactive_energy: +/- 1 %</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>The meter has a reactive energy measurement accuracy of ±2%, not ±1%.</t>
+          <t>The meter specifications meet the requirement for a reactive power accuracy of 1%.</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>Power_factor: ± 0.005</t>
+          <t>Power_factor: +/- 0.005</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>The meter has a power factor measurement accuracy of ±0.005, not ±0.01.</t>
+          <t>The meter specifications meet the requirement for a power factor accuracy of 0.01%, but the actual specification is +/- 0.005.</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>Active_energy: ± 0.5%</t>
+          <t>Active_energy: +/- 0.2 %</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>The meter meets the requirement by providing active energy measurement with an accuracy of ±0.5%.</t>
+          <t>The meter specifications meet the requirement for an active energy accuracy of IEC62053-22 Class 0.5S with a tolerance of +/- 0.2%.</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>± 0.5%</t>
+          <t>Active_energy: +/- 0.2 %</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>The meter has a measurement accuracy of ± 0.5% for active energy, which meets the requirement.</t>
+          <t>The meter specifications meet the requirement for an active energy accuracy of IEC 61557-12 Class 0.5 with a tolerance of +/- 0.2%.</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
+          <t>Not specified in meter specifications</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify a THD (Total Harmonic Distortion) measurement capability, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter specifications do not provide information on Total Harmonic Distortion (THD).</t>
         </is>
       </c>
     </row>
@@ -2645,404 +2645,284 @@
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>± 0.5%</t>
-        </is>
-      </c>
-      <c r="C24" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Voltage: +/- 0.1 %</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>The meter has a measurement accuracy of ± 0.5% for voltage, which meets the requirement.</t>
+          <t>The meter specifications meet the requirement for a voltage accuracy of 0.2%, but the actual specification is +/- 0.1%.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>8.2.8 Voltage VL-L 0.2%</t>
+          <t>8.3.6 Immunity to Magnetic Fields - IEC 61000-4-8</t>
         </is>
       </c>
       <c r="B25" s="8" t="inlineStr">
         <is>
-          <t>± 0.5%</t>
-        </is>
-      </c>
-      <c r="C25" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not specified in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>The meter has a measurement accuracy of ± 0.5% for voltage, which meets the requirement.</t>
+          <t>The meter specifications do not provide any information regarding immunity to magnetic fields.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>8.2.9 Current 0.2%</t>
+          <t>8.3.7 Immunity to Voltage Dips - IEC 61000-4-11</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>± 0.5%</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not specified in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>The meter has a measurement accuracy of ± 0.5% for current, which meets the requirement.</t>
+          <t>The meter specifications do not provide any information regarding immunity to voltage dips.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>8.2.10 Frequency 0.1%</t>
+          <t>8.3.8 Radiated Emissions - EN55011 Class A</t>
         </is>
       </c>
       <c r="B27" s="8" t="inlineStr">
         <is>
-          <t>± 0.05%</t>
-        </is>
-      </c>
-      <c r="C27" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not specified in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>The meter has a measurement accuracy of ± 0.05% for frequency, which meets the requirement.</t>
+          <t>The meter specifications do not provide any information regarding radiated emissions.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>8.2.11 Active power 0.5%</t>
+          <t>8.3.9 Conducted Emissions - EN55011 Class A</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>± 0.5%</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
+          <t>Not specified in the meter specifications.</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>❌ Non-compliant</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>The meter has a measurement accuracy of ± 0.5% for active power, which meets the requirement.</t>
+          <t>The meter specifications do not provide any information regarding conducted emissions.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>8.3 Electromagnetic Emission</t>
+          <t>8.3.10 Harmonics - IEC 61000-3-2</t>
         </is>
       </c>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>up to the 63rd harmonic</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify any electromagnetic emission characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter specifications indicate that it can measure harmonics up to the 63rd, which meets the requirement.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>8.3.1 Electrostatic Discharge - IEC 61000-4-2</t>
+          <t>8.4 Certifications</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>CE conforming to IEC 61010-1, CULus conforming to UL 61010-1, BTL</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify any electrostatic discharge characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter specifications list CE, CULus, and BTL certifications, which meet the requirement.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>8.3.2 Immunity to Radiated Fields - IEC 61000-4-3</t>
+          <t>8.4.1 All the meter’s accuracy shall be comply with IEC62053-22 with 3rd party lab certifications</t>
         </is>
       </c>
       <c r="B31" s="8" t="inlineStr">
         <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
+          <t>Class 0.2S active energy conforming to IEC 62053-22</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>✅ Compliant</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>The meter does not specify any immunity to radiated fields characteristics, so it cannot be determined if it complies with this requirement.</t>
+          <t>The meter specifications indicate that the accuracy class is Class 0.2S, which conforms to IEC 62053-22.</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>8.3.3 Immunity to Fast Transients - IEC 61000-4-4</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>The meter does not specify any immunity to fast transients characteristics, so it cannot be determined if it complies with this requirement.</t>
-        </is>
-      </c>
+      <c r="A32" s="8" t="n"/>
+      <c r="B32" s="8" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>8.3.4 Immunity to Impulse Waves - IEC 61000-4-5</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>The meter does not specify any immunity to impulse waves characteristics, so it cannot be determined if it complies with this requirement.</t>
-        </is>
-      </c>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>Areas Exceeding Requirements:</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>8.3.5 Conducted Immunity - IEC 61000-4-6</t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>The meter does not specify any conducted immunity characteristics, so it cannot be determined if it complies with this requirement.</t>
-        </is>
-      </c>
+          <t>- {'requirement': 'Measurement accuracy according to IEC62053-22 Cl 0.5S', 'spec_value': 'The PM5560 has an active energy measurement accuracy of +/- 0.2% conforming to IEC 62053-22.'}</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n"/>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>8.3.6 Immunity to Magnetic Fields - IEC 61000-4-8</t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="inlineStr">
-        <is>
-          <t>The meter does not specify any immunity to magnetic fields characteristics, so it cannot be determined if it complies with this requirement.</t>
-        </is>
-      </c>
+          <t>- {'requirement': 'Harmonics up to 63rd order', 'spec_value': 'The PM5560 can measure harmonics up to the 63rd harmonic.'}</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="8" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>8.3.7 Immunity to Voltage Dips - IEC 61000-4-11</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
-        <is>
-          <t>The meter does not specify any immunity to voltage dips characteristics, so it cannot be determined if it complies with this requirement.</t>
-        </is>
-      </c>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>Potential Compliance Issues:</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n"/>
+      <c r="C36" s="8" t="n"/>
+      <c r="D36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>8.3.8 Radiated Emissions - EN55011 Class A</t>
-        </is>
-      </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C37" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>The meter specifications do not provide any information on radiated emissions, which is required to meet EN55011 Class A standards.</t>
-        </is>
-      </c>
+          <t>- {'requirement': '8.1 General Specification', 'spec_value': 'Not specified in the meter specifications.', 'justification': 'General specification details are not provided in the meter specifications.'}</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="n"/>
+      <c r="C37" s="8" t="n"/>
+      <c r="D37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>8.3.9 Conducted Emissions - EN55011 Class A</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>Not specified in the meter specifications.</t>
-        </is>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="inlineStr">
-        <is>
-          <t>The meter specifications do not provide any information on conducted emissions, which is required to meet EN55011 Class A standards.</t>
-        </is>
-      </c>
+          <t>- {'requirement': 'Instantaneous values, L-N voltage, L-L voltage, frequency, power, power factor, THDV, THDI', 'spec_value': 'Not explicitly listed in the meter specifications.', 'justification': 'The meter specifications do not list specific instantaneous values or THDV/THDI measurements.'}</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="D38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>8.3.10 Harmonics - IEC 61000-3-2</t>
-        </is>
-      </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>Individual odd harmonics up to 31st.</t>
-        </is>
-      </c>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="inlineStr">
-        <is>
-          <t>The meter specifications indicate that it can measure individual odd harmonics up to the 31st, which meets the requirements of IEC 61000-3-2.</t>
-        </is>
-      </c>
+          <t>- {'requirement': 'Real time clock', 'spec_value': 'Not explicitly listed in the meter specifications.', 'justification': 'The meter specifications do not mention a real-time clock feature.'}</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="n"/>
+      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>8.4 Certifications</t>
-        </is>
-      </c>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>cULus</t>
-        </is>
-      </c>
-      <c r="C40" s="10" t="inlineStr">
-        <is>
-          <t>❌ Non-compliant</t>
-        </is>
-      </c>
-      <c r="D40" s="8" t="inlineStr">
-        <is>
-          <t>The meter is certified with cULus, but it does not meet the requirement for EN55011 Class A emissions standards.</t>
-        </is>
-      </c>
+          <t>- {'requirement': '8.2.3 Power factor 0.01', 'issue': 'The meter specifications meet the requirement for a power factor accuracy of 0.01%, but the actual specification is +/- 0.005.'}</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="n"/>
+      <c r="C40" s="8" t="n"/>
+      <c r="D40" s="8" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>8.4.1 All the meter’s accuracy shall be comply with IEC62053-22 with 3rd party lab certifications</t>
-        </is>
-      </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>Class 0.5S active energy conforming to IEC 62053-22.</t>
-        </is>
-      </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>✅ Compliant</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="inlineStr">
-        <is>
-          <t>The meter's accuracy class is Class 0.5S, which conforms to IEC 62053-22 standards, and it has third-party lab certifications.</t>
-        </is>
-      </c>
+          <t>- {'requirement': '8.2.6 THD 1%', 'issue': 'The meter specifications do not provide information on Total Harmonic Distortion (THD).'}</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="n"/>
+      <c r="C41" s="8" t="n"/>
+      <c r="D41" s="8" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="n"/>
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>- {'requirement': '8.2.7 Voltage VL-N 0.2%', 'issue': 'The meter specifications meet the requirement for a voltage accuracy of 0.2%, but the actual specification is +/- 0.1%.'}</t>
+        </is>
+      </c>
       <c r="B42" s="8" t="n"/>
       <c r="C42" s="8" t="n"/>
       <c r="D42" s="8" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>Areas Exceeding Requirements:</t>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>- Immunity to magnetic fields, voltage dips, radiated emissions, and conducted emissions are not specified in the meter specifications.</t>
         </is>
       </c>
       <c r="B43" s="8" t="n"/>
@@ -3050,209 +2930,9 @@
       <c r="D43" s="8" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>- 8.3.10 Harmonics - IEC 61000-3-2</t>
-        </is>
-      </c>
-      <c r="B44" s="8" t="n"/>
-      <c r="C44" s="8" t="n"/>
-      <c r="D44" s="8" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>Potential Compliance Issues:</t>
-        </is>
-      </c>
-      <c r="B45" s="8" t="n"/>
-      <c r="C45" s="8" t="n"/>
-      <c r="D45" s="8" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>- Harmonics up to 63rd order</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="n"/>
-      <c r="C46" s="8" t="n"/>
-      <c r="D46" s="8" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>- Memory Recording for energy, demand, max demand &amp; max/min record</t>
-        </is>
-      </c>
-      <c r="B47" s="8" t="n"/>
-      <c r="C47" s="8" t="n"/>
-      <c r="D47" s="8" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>- Build in Modbus RTU communication</t>
-        </is>
-      </c>
-      <c r="B48" s="8" t="n"/>
-      <c r="C48" s="8" t="n"/>
-      <c r="D48" s="8" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>- 6.4kHz sampling (128 Samples/cycle)</t>
-        </is>
-      </c>
-      <c r="B49" s="8" t="n"/>
-      <c r="C49" s="8" t="n"/>
-      <c r="D49" s="8" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>- Operating temperature -25°C to +55°C</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="n"/>
-      <c r="C50" s="8" t="n"/>
-      <c r="D50" s="8" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="inlineStr">
-        <is>
-          <t>- Reactive power 1%</t>
-        </is>
-      </c>
-      <c r="B51" s="8" t="n"/>
-      <c r="C51" s="8" t="n"/>
-      <c r="D51" s="8" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>- Power factor 0.01</t>
-        </is>
-      </c>
-      <c r="B52" s="8" t="n"/>
-      <c r="C52" s="8" t="n"/>
-      <c r="D52" s="8" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.2.6 THD 1%', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B53" s="8" t="n"/>
-      <c r="C53" s="8" t="n"/>
-      <c r="D53" s="8" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3 Electromagnetic Emission', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="n"/>
-      <c r="C54" s="8" t="n"/>
-      <c r="D54" s="8" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3.1 Electrostatic Discharge - IEC 61000-4-2', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B55" s="8" t="n"/>
-      <c r="C55" s="8" t="n"/>
-      <c r="D55" s="8" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3.2 Immunity to Radiated Fields - IEC 61000-4-3', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B56" s="8" t="n"/>
-      <c r="C56" s="8" t="n"/>
-      <c r="D56" s="8" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3.3 Immunity to Fast Transients - IEC 61000-4-4', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B57" s="8" t="n"/>
-      <c r="C57" s="8" t="n"/>
-      <c r="D57" s="8" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3.4 Immunity to Impulse Waves - IEC 61000-4-5', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B58" s="8" t="n"/>
-      <c r="C58" s="8" t="n"/>
-      <c r="D58" s="8" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3.5 Conducted Immunity - IEC 61000-4-6', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B59" s="8" t="n"/>
-      <c r="C59" s="8" t="n"/>
-      <c r="D59" s="8" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3.6 Immunity to Magnetic Fields - IEC 61000-4-8', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B60" s="8" t="n"/>
-      <c r="C60" s="8" t="n"/>
-      <c r="D60" s="8" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>- {'requirement': '8.3.7 Immunity to Voltage Dips - IEC 61000-4-11', 'issue': 'Not specified in the meter specifications.'}</t>
-        </is>
-      </c>
-      <c r="B61" s="8" t="n"/>
-      <c r="C61" s="8" t="n"/>
-      <c r="D61" s="8" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>- 8.3.8 Radiated Emissions</t>
-        </is>
-      </c>
-      <c r="B62" s="8" t="n"/>
-      <c r="C62" s="8" t="n"/>
-      <c r="D62" s="8" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>- 8.3.9 Conducted Emissions</t>
-        </is>
-      </c>
-      <c r="B63" s="8" t="n"/>
-      <c r="C63" s="8" t="n"/>
-      <c r="D63" s="8" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>- 8.4 Certifications</t>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>- The accuracy class is Class 0.2S, which meets the requirement but does not specify third-party lab certifications.</t>
         </is>
       </c>
     </row>
